--- a/PreliminaryResults_3.2.23.xlsx
+++ b/PreliminaryResults_3.2.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A201D4-9DC9-1D45-B407-791C5128E0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CB1651-BB2D-5B4B-9233-E6860780933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21680" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,10 @@
     <sheet name="Condition x Salience" sheetId="2" r:id="rId2"/>
     <sheet name="Condition x Stress" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'Condition x Choice'!$A$1:$C$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Condition x Choice'!$A$2:$C$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>rejchoice_std</t>
   </si>
@@ -110,6 +114,9 @@
   </si>
   <si>
     <t>n=27</t>
+  </si>
+  <si>
+    <t>n=45</t>
   </si>
 </sst>
 </file>
@@ -237,6 +244,337 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Condition x Choice'!$G$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.4313075305595518E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.2040005590083651E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.6628581244032425E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Condition x Choice'!$G$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.4313075305595518E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.2040005590083651E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.6628581244032425E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Condition x Choice'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Rejection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acceptance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Condition x Choice'!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.45282369146005502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40320247933884301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39318181818181802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28E9-F046-AF1E-36BDE76FD1A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="846107984"/>
+        <c:axId val="846110256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="846107984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846110256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="846110256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846107984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -733,6 +1071,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1236,7 +1614,551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557932</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>299590</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>193865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F21706-FAA3-96CC-527D-35DD6FE57F3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1478,10 +2400,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1523,40 +2445,40 @@
     </row>
     <row r="2" spans="1:12" ht="19">
       <c r="A2" s="2">
-        <v>0.48468013962962903</v>
+        <v>0.45282369146005502</v>
       </c>
       <c r="B2" s="2">
-        <v>0.41141975555555499</v>
+        <v>0.40320247933884301</v>
       </c>
       <c r="C2" s="2">
-        <v>0.395061728407407</v>
+        <v>0.39318181818181802</v>
       </c>
       <c r="D2" s="2">
-        <v>0.42266697103072098</v>
+        <v>0.43142522467612399</v>
       </c>
       <c r="E2" s="2">
-        <v>0.40261245926360301</v>
+        <v>0.41617700947168201</v>
       </c>
       <c r="F2" s="2">
-        <v>0.44909250409439699</v>
+        <v>0.44695811071807201</v>
       </c>
       <c r="G2">
-        <f>(D2/SQRT(26))</f>
-        <v>8.2891812809107804E-2</v>
+        <f>(D2/SQRT(45))</f>
+        <v>6.4313075305595518E-2</v>
       </c>
       <c r="H2">
-        <f>E2/SQRT(26)</f>
-        <v>7.8958799469257379E-2</v>
+        <f>E2/SQRT(45)</f>
+        <v>6.2040005590083651E-2</v>
       </c>
       <c r="I2">
-        <f>F2/SQRT(26)</f>
-        <v>8.8074286222522238E-2</v>
+        <f>F2/SQRT(45)</f>
+        <v>6.6628581244032425E-2</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K2">
-        <v>2.31039016178774</v>
+        <v>1.83107366572028</v>
       </c>
       <c r="L2" s="9">
         <v>0.17748840143185099</v>
@@ -1573,21 +2495,27 @@
         <v>22</v>
       </c>
       <c r="K3">
-        <v>2.9060502774852701E-2</v>
+        <v>7.4024274995501904E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="11">
-        <v>44987</v>
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L17" s="9">
+        <v>0.117067139563238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/PreliminaryResults_3.2.23.xlsx
+++ b/PreliminaryResults_3.2.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CB1651-BB2D-5B4B-9233-E6860780933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43378FD4-5AF2-724D-8627-D4FB5F9BECB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21680" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="3340" windowWidth="26980" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Condition x Choice" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Condition x Stress" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'Condition x Choice'!$A$1:$C$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Condition x Choice'!$A$2:$C$2</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Condition x Stress'!$A$1:$C$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Condition x Stress'!$A$2:$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>rejchoice_std</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>neutralchoice_std</t>
-  </si>
-  <si>
-    <t>T-Test Condition x choice</t>
   </si>
   <si>
     <t>rej_std</t>
@@ -113,10 +110,7 @@
     <t>ES</t>
   </si>
   <si>
-    <t>n=27</t>
-  </si>
-  <si>
-    <t>n=45</t>
+    <t>n=49</t>
   </si>
 </sst>
 </file>
@@ -258,6 +252,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Self-Choice</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -273,10 +293,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -307,6 +324,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A13A-C84B-BA95-7D5F06311F5F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A13A-C84B-BA95-7D5F06311F5F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A13A-C84B-BA95-7D5F06311F5F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -318,13 +400,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>6.4313075305595518E-2</c:v>
+                    <c:v>6.3271056084428887E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.2040005590083651E-2</c:v>
+                    <c:v>6.1386432287432055E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.6628581244032425E-2</c:v>
+                    <c:v>6.6638788577742608E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -336,13 +418,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>6.4313075305595518E-2</c:v>
+                    <c:v>6.3271056084428887E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.2040005590083651E-2</c:v>
+                    <c:v>6.1386432287432055E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.6628581244032425E-2</c:v>
+                    <c:v>6.6638788577742608E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -385,20 +467,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45282369146005502</c:v>
+                  <c:v>0.45392702535559598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40320247933884301</c:v>
+                  <c:v>0.40009276437847802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39318181818181802</c:v>
+                  <c:v>0.41088435374149601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-28E9-F046-AF1E-36BDE76FD1A2}"/>
+              <c16:uniqueId val="{00000000-A13A-C84B-BA95-7D5F06311F5F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -412,16 +494,82 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="846107984"/>
-        <c:axId val="846110256"/>
+        <c:axId val="1762151279"/>
+        <c:axId val="1762153007"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="846107984"/>
+        <c:axId val="1762151279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Social</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Condition</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -430,10 +578,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -446,10 +591,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -459,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="846110256"/>
+        <c:crossAx val="1762153007"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -467,26 +609,78 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="846110256"/>
+        <c:axId val="1762153007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Proportion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Self-Choice</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -494,7 +688,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -505,10 +701,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -518,7 +711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="846107984"/>
+        <c:crossAx val="1762151279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -532,13 +725,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -546,12 +732,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -750,13 +931,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.15069784344021742</c:v>
+                    <c:v>0.16964888171295842</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.60287552653589827</c:v>
+                    <c:v>0.59835433067670329</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.45760431532242879</c:v>
+                    <c:v>0.49629389300274968</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -768,13 +949,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.15069784344021742</c:v>
+                    <c:v>0.16964888171295842</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.60287552653589827</c:v>
+                    <c:v>0.59835433067670329</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.45760431532242879</c:v>
+                    <c:v>0.49629389300274968</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -817,13 +998,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.92592592592592</c:v>
+                  <c:v>2.0408163265306101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.07407407407407</c:v>
+                  <c:v>3.0510204081632599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3333333333333299</c:v>
+                  <c:v>2.53061224489795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,6 +1212,1020 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Likelihood To Share</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9E80-0C48-B8B3-54C7A8FE90D3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9E80-0C48-B8B3-54C7A8FE90D3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9E80-0C48-B8B3-54C7A8FE90D3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Condition x Salience'!$G$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.16964888171295842</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.59835433067670329</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.49629389300274968</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Condition x Salience'!$G$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.16964888171295842</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.59835433067670329</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.49629389300274968</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Condition x Salience'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Rejection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acceptance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Condition x Salience'!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0408163265306101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0510204081632599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.53061224489795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E80-0C48-B8B3-54C7A8FE90D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1842092559"/>
+        <c:axId val="1842083871"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1842092559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Social</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Condition</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842083871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1842083871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Likelihood</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> to Share</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842092559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Emotion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AE5E-8C4E-A340-11781D9AA2B4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AE5E-8C4E-A340-11781D9AA2B4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AE5E-8C4E-A340-11781D9AA2B4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Condition x Stress'!$G$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.45080274640860768</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1746956257766725</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1366731097804936</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Condition x Stress'!$G$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.45080274640860768</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1746956257766725</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1366731097804936</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Condition x Stress'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Rejection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acceptance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Condition x Stress'!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.4489795918367303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9897959183673404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7959183673469301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE5E-8C4E-A340-11781D9AA2B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1842073295"/>
+        <c:axId val="1842075023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1842073295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Social Condition</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842075023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1842075023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Emotion Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842073295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1111,6 +2306,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2117,27 +3392,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>557932</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>186050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>753316</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>186049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>299590</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494974</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>193865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F21706-FAA3-96CC-527D-35DD6FE57F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE58D1FA-38AB-5571-7BB4-F1C5378ED775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,6 +4460,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657E9DE5-0522-7E2F-8DFB-9178898FBE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E803498-A4CD-90EC-E485-D4F16560DD2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6B5209-948E-1D8A-8D72-2F959E54A9E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,21 +4760,21 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2428,61 +4786,50 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="J1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="19">
-      <c r="A2" s="2">
-        <v>0.45282369146005502</v>
+      <c r="A2" s="8">
+        <v>0.45392702535559598</v>
       </c>
       <c r="B2" s="2">
-        <v>0.40320247933884301</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.39318181818181802</v>
+        <v>0.40009276437847802</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.41088435374149601</v>
       </c>
       <c r="D2" s="2">
-        <v>0.43142522467612399</v>
+        <v>0.42443514723895398</v>
       </c>
       <c r="E2" s="2">
-        <v>0.41617700947168201</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.44695811071807201</v>
+        <v>0.41179270647265798</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.44702658359420699</v>
       </c>
       <c r="G2">
         <f>(D2/SQRT(45))</f>
-        <v>6.4313075305595518E-2</v>
+        <v>6.3271056084428887E-2</v>
       </c>
       <c r="H2">
         <f>E2/SQRT(45)</f>
-        <v>6.2040005590083651E-2</v>
+        <v>6.1386432287432055E-2</v>
       </c>
       <c r="I2">
         <f>F2/SQRT(45)</f>
-        <v>6.6628581244032425E-2</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>1.83107366572028</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0.17748840143185099</v>
-      </c>
+        <v>6.6638788577742608E-2</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="16">
       <c r="A3" s="4"/>
@@ -2491,27 +4838,20 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3">
-        <v>7.4024274995501904E-2</v>
-      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="11">
-        <v>44998</v>
+        <v>45010</v>
       </c>
     </row>
     <row r="17" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L17" s="9">
-        <v>0.117067139563238</v>
-      </c>
+      <c r="L17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2527,7 +4867,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2539,96 +4879,81 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="J1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="6">
-        <v>1.92592592592592</v>
+        <v>2.0408163265306101</v>
       </c>
       <c r="B2" s="6">
-        <v>3.07407407407407</v>
+        <v>3.0510204081632599</v>
       </c>
       <c r="C2" s="6">
-        <v>2.3333333333333299</v>
+        <v>2.53061224489795</v>
       </c>
       <c r="D2" s="6">
-        <v>0.768411244358019</v>
+        <v>0.86504295831356903</v>
       </c>
       <c r="E2" s="6">
-        <v>0.87380361840219201</v>
+        <v>0.90855252301384803</v>
       </c>
       <c r="F2" s="6">
-        <v>0.83205029433784305</v>
+        <v>1.0227015045197301</v>
       </c>
       <c r="G2">
         <f>D2/SQRT(26)</f>
-        <v>0.15069784344021742</v>
+        <v>0.16964888171295842</v>
       </c>
       <c r="H2">
         <f>B2/SQRT(26)</f>
-        <v>0.60287552653589827</v>
+        <v>0.59835433067670329</v>
       </c>
       <c r="I2">
         <f>C2/SQRT(26)</f>
-        <v>0.45760431532242879</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>-5.3437279657022696</v>
-      </c>
-      <c r="L2" s="9">
-        <v>-1.39542154135578</v>
-      </c>
+        <v>0.49629389300274968</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1.35963800841338E-5</v>
-      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="11">
-        <v>44987</v>
+        <v>45010</v>
       </c>
     </row>
   </sheetData>
@@ -2644,80 +4969,80 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="6">
-        <v>4.0185185185185102</v>
+        <v>5.4489795918367303</v>
       </c>
       <c r="B2" s="6">
-        <v>3.74074074074074</v>
+        <v>5.9897959183673404</v>
       </c>
       <c r="C2" s="6">
-        <v>4</v>
+        <v>5.7959183673469301</v>
       </c>
       <c r="D2" s="6">
-        <v>2.3348590860193101</v>
+        <v>2.2986520007187101</v>
       </c>
       <c r="E2" s="6">
-        <v>2.18108287488635</v>
+        <v>2.06026342348488</v>
       </c>
       <c r="F2" s="6">
-        <v>2.18385685639667</v>
+        <v>2.09144678628549</v>
       </c>
       <c r="G2">
         <f>D2/SQRT(26)</f>
-        <v>0.45790354004237993</v>
+        <v>0.45080274640860768</v>
       </c>
       <c r="H2">
         <f>B2/SQRT(26)</f>
-        <v>0.73361961662802166</v>
+        <v>1.1746956257766725</v>
       </c>
       <c r="I2">
         <f>C2/SQRT(26)</f>
-        <v>0.78446454055273618</v>
+        <v>1.1366731097804936</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>0.93344184228169802</v>
@@ -2728,7 +5053,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="J3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="8">
         <v>0.35918024327429299</v>
@@ -2736,15 +5061,16 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="11">
-        <v>44987</v>
+        <v>45010</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>